--- a/Config/Excel/Datas/GameConfig/UnitConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,9 @@
     <t>UnitType</t>
   </si>
   <si>
+    <t>RoleClass</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -123,15 +126,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>子类型</t>
-    </r>
+    <t>职业</t>
   </si>
   <si>
     <r>
@@ -177,6 +172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>身高</t>
     </r>
     <r>
@@ -392,6 +393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>暴击概率</t>
     </r>
     <r>
@@ -419,24 +426,7 @@
     <t>Player</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Character/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>战士</t>
-    </r>
+    <t>Warrior</t>
   </si>
   <si>
     <r>
@@ -450,24 +440,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Character/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法师</t>
-    </r>
+    <t>Wizard</t>
   </si>
   <si>
     <r>
@@ -481,24 +454,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Character/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>弓箭手</t>
-    </r>
+    <t>Anchor</t>
   </si>
   <si>
     <r>
@@ -605,15 +561,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1214,10 +1170,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1861,7 +1817,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -1870,7 +1826,7 @@
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.6666666666667" style="1" customWidth="1"/>
@@ -1975,7 +1931,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>27</v>
@@ -1987,153 +1943,153 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" ht="17.4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Y4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" ht="17.4" spans="2:26">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="1">
         <v>20000</v>
@@ -2186,23 +2142,23 @@
       <c r="Y5" s="1">
         <v>200</v>
       </c>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="17.4" spans="2:26">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="1">
         <v>20000</v>
@@ -2255,23 +2211,23 @@
       <c r="Y6" s="1">
         <v>200</v>
       </c>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" ht="17.4" spans="2:26">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
         <v>20000</v>
@@ -2324,26 +2280,26 @@
       <c r="Y7" s="1">
         <v>500</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" ht="17.4" spans="2:26">
       <c r="B8" s="1">
         <v>1001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1">
         <v>29000</v>
@@ -2396,26 +2352,26 @@
       <c r="Y8" s="1">
         <v>100</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" ht="17.4" spans="2:26">
       <c r="B9" s="1">
         <v>1002</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I9" s="1">
         <v>27500</v>
@@ -2468,26 +2424,26 @@
       <c r="Y9" s="1">
         <v>300</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" ht="17.4" spans="2:26">
       <c r="B10" s="1">
         <v>1003</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
         <v>20000</v>
@@ -2540,26 +2496,26 @@
       <c r="Y10" s="1">
         <v>100</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" ht="17.4" spans="2:26">
       <c r="B11" s="1">
         <v>1004</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
         <v>21200</v>
@@ -2612,26 +2568,26 @@
       <c r="Y11" s="1">
         <v>100</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="17.4" spans="2:26">
       <c r="B12" s="1">
         <v>1005</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1">
         <v>20000</v>
@@ -2684,52 +2640,52 @@
       <c r="Y12" s="1">
         <v>500</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
